--- a/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T10:40:45+00:00</t>
+    <t>2023-02-14T06:06:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:06:47+00:00</t>
+    <t>2023-02-14T06:14:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:14:37+00:00</t>
+    <t>2023-02-14T06:14:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:14:44+00:00</t>
+    <t>2023-02-14T10:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T10:08:14+00:00</t>
+    <t>2023-02-14T11:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:00:57+00:00</t>
+    <t>2023-02-14T11:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:01:25+00:00</t>
+    <t>2023-02-16T14:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:12:28+00:00</t>
+    <t>2023-02-17T05:42:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:42:44+00:00</t>
+    <t>2023-02-17T06:29:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:29:33+00:00</t>
+    <t>2023-02-17T06:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:55:40+00:00</t>
+    <t>2023-02-17T08:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:02:48+00:00</t>
+    <t>2023-02-17T08:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T08:03:26+00:00</t>
+    <t>2023-02-18T08:11:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:00+00:00</t>
+    <t>2023-02-18T08:11:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:11:48+00:00</t>
+    <t>2023-02-18T08:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:36:05+00:00</t>
+    <t>2023-02-18T10:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:10:12+00:00</t>
+    <t>2023-02-18T10:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:12:19+00:00</t>
+    <t>2023-02-18T10:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:18:24+00:00</t>
+    <t>2023-02-18T11:11:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:11:58+00:00</t>
+    <t>2023-02-18T11:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:12:59+00:00</t>
+    <t>2023-02-18T11:19:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
+++ b/branches/Richard/CodeSystem-cs-vl-result-code.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:19:13+00:00</t>
+    <t>2023-02-18T14:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
